--- a/data/node_attr.xlsx
+++ b/data/node_attr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\RW-NPLM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C687AF94-8475-4244-9871-C2FC5518604E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20E381-1C5E-41B8-B871-AEF7190F302E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{D639A64A-990A-4E77-BA31-8DC21D98EFD9}"/>
   </bookViews>
@@ -25,13 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文3</t>
+  </si>
+  <si>
+    <t>论文4</t>
+  </si>
+  <si>
+    <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,76 +438,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150661BC-DA87-4056-86FB-479B3F76460A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
